--- a/DOM_Banner/output/dept_banner/Billie Bixby_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Billie Bixby_2023.xlsx
@@ -1461,7 +1461,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W4283455738", "https://openalex.org/W2177084702", "https://openalex.org/W2341310609", "https://openalex.org/W4281661372", "https://openalex.org/W4252900798", "https://openalex.org/W3024628681", "https://openalex.org/W1901036498", "https://openalex.org/W2285051775", "https://openalex.org/W2155138342", "https://openalex.org/W4210638061")</t>
+          <t>c("https://openalex.org/W4238752995", "https://openalex.org/W2393977738", "https://openalex.org/W2088706544", "https://openalex.org/W4207046597", "https://openalex.org/W4285669903", "https://openalex.org/W2051801047", "https://openalex.org/W1994583257", "https://openalex.org/W1867320779", "https://openalex.org/W2142353978", "https://openalex.org/W1973582222")</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>c("https://openalex.org/W2902148150", "https://openalex.org/W4210760687", "https://openalex.org/W2427775871", "https://openalex.org/W2412780601", "https://openalex.org/W2436129894", "https://openalex.org/W2096523033", "https://openalex.org/W2038974648", "https://openalex.org/W2321075873", "https://openalex.org/W1897659454", "https://openalex.org/W2558705425")</t>
+          <t>c("https://openalex.org/W2938290407", "https://openalex.org/W4382753601", "https://openalex.org/W2588901189", "https://openalex.org/W2767430559", "https://openalex.org/W2751366772", "https://openalex.org/W4281722455", "https://openalex.org/W3007362983", "https://openalex.org/W4295248011", "https://openalex.org/W2772482411", "https://openalex.org/W2468080474")</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
@@ -2558,22 +2558,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Chest</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S76900504</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0012-3692</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Billie Bixby_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Billie Bixby_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Epidemiology, University of Michigan School of Public Health, Ann Arbor; Division of Pulmonary and Critical Care Medicine, Department of Internal Medicine, University of Michigan Medical School, Ann Arbor; University of Michigan Institute for Healthcare Policy and Innovation, Ann Arbor; VA Center for Clinical Management Research, LTC Charles Kettles VA Medical Center, Ann Arbor, Michigan; Division of Pulmonary and Critical Care Medicine, Department of Internal Medicine, University of Michigan Medical School, Ann Arbor; Health Policy and Management, Bloomberg School of Public Health, Johns Hopkins University, Baltimore, Maryland; Pulmonary and Critical Care Medicine, Department of Medicine, Johns Hopkins University, Baltimore, Maryland; VA Center for Clinical Management Research, LTC Charles Kettles VA Medical Center, Ann Arbor, Michigan; VA Center for Clinical Management Research, LTC Charles Kettles VA Medical Center, Ann Arbor, Michigan; Department of Emergency Medicine, Harborview Medical Center, Seattle, Washington; Division of Pulmonary and Critical Care Medicine, Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, Maryland; Division of Pulmonary and Critical Care Medicine, Department of Internal Medicine, University of Utah School of Medicine, Salt Lake City; Division of Pulmonary and Critical Care Medicine, Department of Medicine, Intermountain Medical Center, Murray, Utah; Ronald Reagan-UCLA Medical Center, Pulmonary &amp; Critical Care Medicine, David Geffen School of Medicine at University of California, Los Angeles; Department of Emergency Medicine, Vanderbilt University Medical Center, Nashville, Tennessee; Geriatric Research, Education, and Clinical Center, VA Tennessee Valley Healthcare System, Nashville; Center to Improve Veteran Involvement in Care, VA Portland Health Care System, Oregon Health and Science University, Portland, Oregon; Division of Pulmonary and Critical Care Medicine, Oregon Health &amp; Science University, Portland; Department of Physical Therapy, College of Health Sciences, University of Kentucky, Lexington; Division of Pulmonary and Critical Care Medicine, Department of Mundeledicine, Oregon Health and Science University School of Medicine, Portland; Division of Pulmonary Sciences and Critical Care Medicine, University of Colorado, Denver; Division of Pulmonary and Critical Care Medicine, Department of Internal Medicine, University of Washington, Seattle; Center for Clinical Management Research, VA Ann Arbor Healthcare System, Ann Arbor, Michigan; Pulmonary and Critical Care Medicine, Department of Medicine, Johns Hopkins University, Baltimore, Maryland; Division of Pulmonary and Critical Medicine, Massachusetts General Hospital, Boston, Massachusetts; Pulmonary and Critical Care Medicine, Department of Medicine, Johns Hopkins University, Baltimore, Maryland; Division of Pulmonary and Critical Care Medicine, Department of Internal Medicine, University of Utah School of Medicine, Salt Lake City; Division of Pulmonary and Critical Care Medicine, Department of Medicine, Intermountain Medical Center, Murray, Utah; Division of Pulmonary Sciences and Critical Care Medicine, University of Colorado, Denver; Division of Pulmonary and Critical Medicine, Massachusetts General Hospital, Boston, Massachusetts; Division of Pulmonary and Critical Care Medicine, Department of Medicine, Oregon Health and Science University School of Medicine, Portland; The National Heart, Lung, and Blood Institute Prevention and Early Treatment of Acute Lung Injury Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network; for the National Heart, Lung, and Blood Institute PETAL Network</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4320709372</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Assessment of Symptom, Disability, and Financial Trajectories in Patients Hospitalized for COVID-19 at 6 Months</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-14</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>JAMA network open</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>American Medical Association</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jamanetworkopen.2022.55795</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36787143</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jamanetworkopen.2022.55795</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Immunobiology, University of Arizona College of Medicine-Tucson, P.O. Box 245221, 1501 N. Campbell Ave, Tucson, AZ, USA.; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Vir, Inc., San Francisco, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; Department of Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, USA; Division of Pulmonary Medicine, Department of Medicine, Indiana University, Indianapolis, USA; Division of Pulmonary Medicine, Department of Medicine, Indiana University, Indianapolis, USA; Department of Medicine, University of Arizona College of Medicine-Phoenix, Phoenix, USA; Department of Medicine, Arizona Respiratory Center, Tucson, USA; The Division of Vascular Surgery, University of Arizona, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, USA; Division of Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine Tucson, Tucson, USA; BIO5 Institute, University of Arizona, Tucson, USA; R. Ken Coit College of Pharmacy, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; R. Ken Coit College of Pharmacy, Tucson, USA; Department of Immunobiology, University of Arizona College of Medicine-Tucson, Tucson, USA; R. Ken Coit College of Pharmacy, Tucson, USA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4315754302</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>T-cell cellular stress and reticulocyte signatures, but not loss of naïve T lymphocytes, characterize severe COVID-19 in older adults</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-01-12</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>GeroScience</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Springer International Publishing</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s11357-022-00724-y</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36633825</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s11357-022-00724-y</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,24 +626,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Pulmonary and Critical Care Medicine, University of Arizona Tucson, Tucson, AZ, United States; Department of Hematology and Medical Oncology, UMass Chan Medical School - Baystate Health, Springfield, MA, United States; Interventional Pulmonary, Pulmonary and Critical Care Medicine, University of Arizona College of Medicine, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367599820</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Pulmonary Lymphomatoid Granulomatosis vs Diffuse Large B-cell Lymphoma (DLBCL): A Diagnostic and Management Dilemma</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -636,14 +651,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a5909</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -651,35 +666,40 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a5909</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,24 +713,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine, Tucson, AZ, United States; Department of Pathology, University of Arizona College of Medicine, Tucson, AZ, United States; Pulmonology, Banner University Medical Group, Tucson, AZ, United States; Pulmonary and Critical Care, University of Arizona College of Medicine, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367606046</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Protein in the Alveoli Leads to Mold in the Lung</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -718,14 +738,14 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4947</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4947</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367606415</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>May 2023 Critical Care Case of the Month: Not a Humerus Case</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Southwest journal of pulmonary, critical care &amp; sleep</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>https://doi.org/10.13175/swjpccs018-23</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.13175/swjpccs018-23</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,24 +887,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>University of Arizona College of Medicine, Tucson, AZ, United States; Pulmonary, Allergy, Critical Care, and Sleep, University of Arizona College of Medicine, Tucson, AZ, United States; University of Arizona College of Medicine, Tucson, AZ, United States; University of Arizona College of Medicine, Tucson, AZ, United States; Pulmonary and Critical Care, University of Arizona College of Medicine, Tucson, AZ, United States</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367606426</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>A Novel Case of Spontaneous Pulmonary Hematoma and Hemothorax in a Patient With Glanzmann Thrombasthenia</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -882,14 +912,14 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a3366</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -897,35 +927,40 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a3366</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -934,29 +969,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>J. Lenka, Aaron Bertolo, K. Barker, Billie Bixby</t>
+          <t>Shailendra Kumar, Billie Bixby</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367606773</t>
+          <t>Pulmonary, Allergy, Critical Care &amp; Sleep Medicine, University of Arizona College of Medicine, Tucson, AZ, United States; Pulmonary and Critical Care, University of Arizona College of Medicine, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Aggressive vs Conservative Management of a Solitary Fibrous Tumor (SFT) of Pleura With Atypia</t>
+          <t>https://openalex.org/W4367607557</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>When Mold Masks Mesothelioma</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -964,12 +999,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4143</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4106</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4143</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4106</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1016,29 +1056,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Shailendra Kumar, Billie Bixby</t>
+          <t>J. Lenka, Billie Bixby, George S. Watts, Marc M. Oshiro, H. Trina, Heidi L. Erickson, Bernard W. Futscher, Linda L. Garland, M.A. Mark</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367607557</t>
+          <t>Pulmonary and Critical Care Medicine, University of Arizona Tucson, Tucson, AZ, United States; Interventional Pulmonary, Pulmonary and Critical Care Medicine, University of Arizona Tucson, Tucson, AZ, United States; University of Arizona Cancer Center (UACC) Genomics Shared Service, University of Arizona Tucson, Tucson, AZ, United States; University of Arizona Cancer Center, University of Arizona Tucson, Tucson, AZ, United States; Pulmonary and Critical Care Medicine, University of Arizona Tucson, Tucson, AZ, United States; Arizona Respiratory Center, University of Arizona, Tucson, AZ, United States; University of Arizona Cancer Center, University of Arizona Tucson, Tucson, AZ, United States; University of Arizona Cancer Center, University of Arizona Tucson, Tucson, AZ, United States; Department of Pathology, University of Arizona Tucson, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>When Mold Masks Mesothelioma</t>
+          <t>https://openalex.org/W4367609301</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>A Pilot Study of Diagnostic Value of Sentinel-10 Liquid Biopsy Assay for the Detection of Malignancy in Pleural Fluid</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>2023-05-01</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1046,12 +1086,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4106</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a5980</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1061,35 +1101,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4106</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a5980</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1098,42 +1143,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>J. Lenka, Billie Bixby, George S. Watts, Marc M. Oshiro, H. Trina, Heidi L. Erickson, Bernard W. Futscher, Linda L. Garland, M.A. Mark</t>
+          <t>Julie Highland, Vanessa Torrecillas, Taylor S Redding, Billie Bixby, Aidin Iravani, Travis J. Haller, Matthew A. Firpo, S.A.R. Nouraei, Marshall E. Smith</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367609301</t>
+          <t>Department of Surgery, Department of Otolaryngology, University of Utah, Salt Lake City, Utah, USA; Department of Surgery, Department of Otolaryngology, University of Utah, Salt Lake City, Utah, USA; University of Utah School of Medicine, Salt Lake City, Utah, USA; Department of Internal Medicine, Division of Pulmonary and Critical Care, University of Arizona, Tucson, Arizona, USA; Department of Internal Medicine, Division of Pulmonology, University of Utah, Salt Lake City, Utah, USA; University of Utah School of Medicine, Salt Lake City, Utah, USA; University of Utah School of Medicine, Salt Lake City, Utah, USA; Department of Otolaryngology, Nottingham University Hospitals NHS Trust, Nottingham, UK; Department of Surgery, Department of Otolaryngology, University of Utah, Salt Lake City, Utah, USA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>A Pilot Study of Diagnostic Value of Sentinel-10 Liquid Biopsy Assay for the Detection of Malignancy in Pleural Fluid</t>
+          <t>https://openalex.org/W4385406785</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023-05-01</t>
+          <t>Optimization of Subglottic View During Flexible Laryngoscopy With Patient Positioning</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-07-31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Otolaryngology-Head and Neck Surgery</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a5980</t>
+          <t>Wiley</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1002/ohn.419</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1143,35 +1188,40 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a5980</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37522249</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/ohn.419</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1180,42 +1230,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Julie Highland, Vanessa Torrecillas, Taylor S Redding, Billie Bixby, Aidin Iravani, Travis J. Haller, Matthew A. Firpo, S.A.R. Nouraei, Marshall E. Smith</t>
+          <t>Ashley Scott, Billie Bixby, Afshin Sam</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385406785</t>
+          <t>Department of Pulmonary and Critical Care Medicine, University of Arizona Tucson, AZ; Department of Pulmonary and Critical Care Medicine, University of Arizona Tucson, AZ; Department of Pulmonary and Critical Care Medicine, City of Hope, Duarte, CA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Optimization of Subglottic View During Flexible Laryngoscopy With Patient Positioning</t>
+          <t>https://openalex.org/W4386704078</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023-07-31</t>
+          <t>A Rare Presentation of Disseminated Coccidioidomycosis Requiring Procedural Intervention</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Otolaryngology-Head and Neck Surgery</t>
+          <t>2023-09-13</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Wiley</t>
+          <t>Journal of Bronchology &amp; Interventional Pulmonology</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/ohn.419</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1097/lbr.0000000000000940</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1225,35 +1275,40 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37522249</t>
-        </is>
-      </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1002/ohn.419</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37700447</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1097/lbr.0000000000000940</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1262,42 +1317,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ashley Scott, Billie Bixby, Afshin Sam</t>
+          <t>BHARGAV PATEL, Madhav Chopra, Billie Bixby, James Knepler</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386704078</t>
+          <t xml:space="preserve">; ; ; </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A Rare Presentation of Disseminated Coccidioidomycosis Requiring Procedural Intervention</t>
+          <t>https://openalex.org/W4387248955</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023-09-13</t>
+          <t>EARLIER REFERRAL FOR BRONCHOSCOPY IN IMMUNOCOMPROMISED PATIENT</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Journal of Bronchology &amp; Interventional Pulmonology</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Chest</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/lbr.0000000000000940</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.chest.2023.07.3391</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1307,35 +1362,40 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
+          <t>bronze</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37700447</t>
-        </is>
-      </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/lbr.0000000000000940</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.chest.2023.07.3391</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1344,80 +1404,85 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BHARGAV PATEL, Madhav Chopra, Billie Bixby, James Knepler</t>
+          <t>Billie Bixby, Lukáš Vrba, J. Lenka, Marc M. Oshiro, George S. Watts, Trina Hughes, Heidi L. Erickson, Madhav Chopra, James Knepler, Kenneth S. Knox, Lisa Jarnagin, Raed Alalawi, Mrinalini Kala, Richard Bernert, Joseph I. Routh, Denise J. Roe, Linda L. Garland, Bernard W. Futscher, Mark A. Nelson</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387248955</t>
+          <t>University of Arizona; ; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; University of Arizona; ; ; University of Arizona; University of Arizona; University of Arizona; University of Arizona</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>EARLIER REFERRAL FOR BRONCHOSCOPY IN IMMUNOCOMPROMISED PATIENT</t>
+          <t>https://openalex.org/W4387446382</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>Cell-Free DNA Methylation Analysis as a Marker of Malignancy in Pleural Fluid</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Chest</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>Research Square (Research Square)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.3391</t>
+          <t>Research Square (United States)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.21203/rs.3.rs-3390107/v1</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.chest.2023.07.3391</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37886511</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.21203/rs.3.rs-3390107/v1</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1426,80 +1491,85 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Billie Bixby, Lukáš Vrba, J. Lenka, Marc M. Oshiro, George S. Watts, Trina Hughes, Heidi L. Erickson, Madhav Chopra, James Knepler, Kenneth S. Knox, Lisa Jarnagin, Raed Alalawi, Mrinalini Kala, Richard Bernert, Joseph I. Routh, Denise J. Roe, Linda L. Garland, Bernard W. Futscher, Mark A. Nelson</t>
+          <t>J. Lenka, Aaron Bertolo, K. Barker, Billie Bixby</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387446382</t>
+          <t>Department of Pulmonary and Critical Care Medicine, University of Arizona Tucson, Tucson, AZ, United States; Department of Internal Medicine, University of Arizona Tucson, Tucson, AZ, United States; Department of Internal Medicine, University of Arizona Tucson, Tucson, AZ, United States; Interventional Pulmonary and Critical Care Medicine, University of Arizona College of Medicine, Tucson, AZ, United States</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cell-Free DNA Methylation Analysis as a Marker of Malignancy in Pleural Fluid</t>
+          <t>https://openalex.org/W4367606773</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023-10-09</t>
+          <t>Aggressive vs Conservative Management of a Solitary Fibrous Tumor (SFT) of Pleura With Atypia</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Research Square (Research Square)</t>
+          <t>2023-05-01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Research Square (United States)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3390107/v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4143</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37886511</t>
-        </is>
-      </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21203/rs.3.rs-3390107/v1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1164/ajrccm-conference.2023.207.1_meetingabstracts.a4143</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
